--- a/docs/Mapping_casi_uso/morte/Morte_998_2.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_998_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="57">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -54,6 +57,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -235,7 +241,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -247,6 +253,7 @@
     <col min="4" max="4" width="22.48828125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -268,25 +275,31 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -308,405 +321,468 @@
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/morte/Morte_998_2.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_998_2.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Formula</t>
@@ -253,7 +253,7 @@
     <col min="4" max="4" width="22.48828125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/morte/Morte_998_2.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_998_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="58">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,19 +32,22 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>998</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>998</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -322,467 +325,467 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/morte/Morte_998_2.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_998_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="60">
   <si>
     <t>Sezione</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>composizioneCompleta</t>
+  </si>
+  <si>
+    <t>Dichiara come non certificabile</t>
+  </si>
+  <si>
+    <t>flagAnnotazioneNonCertificabile</t>
   </si>
 </sst>
 </file>
@@ -244,7 +250,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -254,7 +260,7 @@
     <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="22.48828125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.0546875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
@@ -788,6 +794,29 @@
         <v>16</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/morte/Morte_998_2.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_998_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="62">
   <si>
     <t>Sezione</t>
   </si>
@@ -95,6 +95,15 @@
     <t>estremiDocumento</t>
   </si>
   <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
     <t>Provincia ente</t>
   </si>
   <si>
@@ -120,9 +129,6 @@
   </si>
   <si>
     <t>Indirizzo Ente</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>indirizzoEnte</t>
@@ -250,7 +256,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -457,13 +463,13 @@
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
@@ -477,7 +483,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -486,7 +492,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
@@ -500,7 +506,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -509,7 +515,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
@@ -523,7 +529,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -532,7 +538,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
@@ -546,10 +552,10 @@
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>25</v>
@@ -566,19 +572,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -589,16 +595,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>43</v>
@@ -612,7 +618,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>44</v>
@@ -621,7 +627,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>45</v>
@@ -635,7 +641,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>46</v>
@@ -644,7 +650,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>47</v>
@@ -658,7 +664,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>48</v>
@@ -667,7 +673,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>49</v>
@@ -681,7 +687,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>50</v>
@@ -690,10 +696,10 @@
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -704,19 +710,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -727,7 +733,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>53</v>
@@ -736,10 +742,10 @@
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -750,19 +756,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -773,7 +779,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>56</v>
@@ -782,7 +788,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>57</v>
@@ -796,13 +802,13 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>14</v>
@@ -814,6 +820,29 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_998_2.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_998_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="73">
   <si>
     <t>Sezione</t>
   </si>
@@ -83,6 +83,42 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Dati generali</t>
+  </si>
+  <si>
+    <t>Data decorrenza</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>dataDecorrenza</t>
+  </si>
+  <si>
+    <t>Ora decorrenza</t>
+  </si>
+  <si>
+    <t>oraDecorrenza</t>
+  </si>
+  <si>
+    <t>Minuto decorrenza</t>
+  </si>
+  <si>
+    <t>minutoDecorrenza</t>
+  </si>
+  <si>
+    <t>Motivo recupero</t>
+  </si>
+  <si>
+    <t>motivoRecupero</t>
+  </si>
+  <si>
+    <t>Descrizione recupero</t>
+  </si>
+  <si>
+    <t>descrizioneMotivoRecupero</t>
+  </si>
+  <si>
     <t>Ente dichiarante</t>
   </si>
   <si>
@@ -96,9 +132,6 @@
   </si>
   <si>
     <t>Nome ente</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>nomeEnte</t>
@@ -256,7 +289,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -440,10 +473,10 @@
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
@@ -463,13 +496,13 @@
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
@@ -483,16 +516,16 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
@@ -506,16 +539,16 @@
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
@@ -529,16 +562,16 @@
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
@@ -549,7 +582,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>36</v>
@@ -558,10 +591,10 @@
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -572,19 +605,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -595,19 +628,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -618,19 +651,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -641,19 +674,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -664,19 +697,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -687,19 +720,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -710,19 +743,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -733,19 +766,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -756,19 +789,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -779,19 +812,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -802,19 +835,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -825,24 +858,139 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="2" t="s">
+      <c r="E29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_998_2.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_998_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="62">
   <si>
     <t>Sezione</t>
   </si>
@@ -83,55 +83,22 @@
     <t>minuto</t>
   </si>
   <si>
-    <t>Dati generali</t>
-  </si>
-  <si>
-    <t>Data decorrenza</t>
+    <t>Ente dichiarante</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>evento.enteDichiarante</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
   </si>
   <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t>dataDecorrenza</t>
-  </si>
-  <si>
-    <t>Ora decorrenza</t>
-  </si>
-  <si>
-    <t>oraDecorrenza</t>
-  </si>
-  <si>
-    <t>Minuto decorrenza</t>
-  </si>
-  <si>
-    <t>minutoDecorrenza</t>
-  </si>
-  <si>
-    <t>Motivo recupero</t>
-  </si>
-  <si>
-    <t>motivoRecupero</t>
-  </si>
-  <si>
-    <t>Descrizione recupero</t>
-  </si>
-  <si>
-    <t>descrizioneMotivoRecupero</t>
-  </si>
-  <si>
-    <t>Ente dichiarante</t>
-  </si>
-  <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>evento.enteDichiarante</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Nome ente</t>
   </si>
   <si>
     <t>nomeEnte</t>
@@ -289,7 +256,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -473,10 +440,10 @@
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
@@ -496,13 +463,13 @@
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
@@ -516,16 +483,16 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
@@ -539,16 +506,16 @@
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
@@ -562,16 +529,16 @@
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
@@ -582,7 +549,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>36</v>
@@ -591,10 +558,10 @@
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -605,19 +572,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -628,19 +595,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -651,19 +618,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -674,19 +641,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -697,19 +664,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -720,19 +687,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -743,19 +710,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -766,19 +733,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -789,19 +756,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -812,19 +779,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -835,19 +802,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -858,139 +825,24 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_998_2.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_998_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="75">
   <si>
     <t>Sezione</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>descrizioneMotivoRecupero</t>
+  </si>
+  <si>
+    <t>Identificativo Atto Cartaceo</t>
+  </si>
+  <si>
+    <t>idAttoCartaceo</t>
   </si>
   <si>
     <t>Ente dichiarante</t>
@@ -289,7 +295,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -582,19 +588,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -605,16 +611,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>40</v>
@@ -628,16 +634,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -651,7 +657,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>43</v>
@@ -660,7 +666,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -674,7 +680,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
@@ -683,7 +689,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -697,7 +703,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
@@ -706,7 +712,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -720,16 +726,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -743,19 +749,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -766,16 +772,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>56</v>
@@ -789,7 +795,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>57</v>
@@ -798,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>58</v>
@@ -812,7 +818,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>59</v>
@@ -821,7 +827,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>60</v>
@@ -835,7 +841,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>61</v>
@@ -844,7 +850,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>62</v>
@@ -858,7 +864,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>63</v>
@@ -867,10 +873,10 @@
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -881,19 +887,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -904,7 +910,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>66</v>
@@ -913,10 +919,10 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -927,19 +933,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -950,7 +956,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>69</v>
@@ -959,7 +965,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>70</v>
@@ -973,13 +979,13 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>14</v>
@@ -991,6 +997,29 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_998_2.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_998_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="73">
   <si>
     <t>Sezione</t>
   </si>
@@ -117,12 +117,6 @@
   </si>
   <si>
     <t>descrizioneMotivoRecupero</t>
-  </si>
-  <si>
-    <t>Identificativo Atto Cartaceo</t>
-  </si>
-  <si>
-    <t>idAttoCartaceo</t>
   </si>
   <si>
     <t>Ente dichiarante</t>
@@ -295,7 +289,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -588,19 +582,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -611,16 +605,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>40</v>
@@ -634,16 +628,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -657,7 +651,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>43</v>
@@ -666,7 +660,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -680,7 +674,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
@@ -689,7 +683,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -703,7 +697,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
@@ -712,7 +706,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -726,16 +720,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -749,19 +743,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -772,16 +766,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>56</v>
@@ -795,7 +789,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>57</v>
@@ -804,7 +798,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>58</v>
@@ -818,7 +812,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>59</v>
@@ -827,7 +821,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>60</v>
@@ -841,7 +835,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>61</v>
@@ -850,7 +844,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>62</v>
@@ -864,7 +858,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>63</v>
@@ -873,10 +867,10 @@
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -887,19 +881,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -910,7 +904,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>66</v>
@@ -919,10 +913,10 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -933,19 +927,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -956,7 +950,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>69</v>
@@ -965,7 +959,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>70</v>
@@ -979,13 +973,13 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>14</v>
@@ -997,29 +991,6 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_998_2.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_998_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="77">
   <si>
     <t>Sezione</t>
   </si>
@@ -35,6 +35,18 @@
     <t>Condizioni obbligatorieta'</t>
   </si>
   <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Allegato generico</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -44,9 +56,6 @@
     <t>SI</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
@@ -87,9 +96,6 @@
   </si>
   <si>
     <t>Data decorrenza</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>dataDecorrenza</t>
@@ -295,7 +301,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -357,63 +363,63 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -422,90 +428,90 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
@@ -514,21 +520,21 @@
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
@@ -537,21 +543,21 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -560,21 +566,21 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>34</v>
@@ -583,21 +589,21 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>36</v>
@@ -606,44 +612,44 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -652,12 +658,12 @@
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>43</v>
@@ -666,7 +672,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -675,21 +681,21 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -698,21 +704,21 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -721,21 +727,21 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -744,21 +750,21 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>52</v>
@@ -767,44 +773,44 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>58</v>
@@ -813,21 +819,21 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>60</v>
@@ -836,21 +842,21 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>62</v>
@@ -859,21 +865,21 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>64</v>
@@ -882,113 +888,113 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>72</v>
@@ -997,21 +1003,21 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>74</v>
@@ -1020,7 +1026,30 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/morte/Morte_998_2.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_998_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="79">
   <si>
     <t>Sezione</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>idAttoCartaceo</t>
+  </si>
+  <si>
+    <t>Atto secretato</t>
+  </si>
+  <si>
+    <t>flagsecretato</t>
   </si>
   <si>
     <t>Ente dichiarante</t>
@@ -301,7 +307,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -640,19 +646,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -663,16 +669,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -686,16 +692,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -709,7 +715,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
@@ -718,7 +724,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -732,7 +738,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
@@ -741,7 +747,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -755,7 +761,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>51</v>
@@ -764,7 +770,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>52</v>
@@ -778,16 +784,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>54</v>
@@ -801,19 +807,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -824,16 +830,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>60</v>
@@ -847,7 +853,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>61</v>
@@ -856,7 +862,7 @@
         <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>62</v>
@@ -870,7 +876,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>63</v>
@@ -879,7 +885,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>64</v>
@@ -893,7 +899,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
@@ -902,7 +908,7 @@
         <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>66</v>
@@ -916,7 +922,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>67</v>
@@ -925,10 +931,10 @@
         <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -939,19 +945,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -962,7 +968,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>70</v>
@@ -971,10 +977,10 @@
         <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -985,19 +991,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1008,7 +1014,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>73</v>
@@ -1017,7 +1023,7 @@
         <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>74</v>
@@ -1031,13 +1037,13 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>17</v>
@@ -1049,6 +1055,29 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>19</v>
       </c>
     </row>
